--- a/Libraries/Vehicle/Linkage/SpLA_S2LAR/sm_car_data_Linkage_SpLA_S2LAR.xlsx
+++ b/Libraries/Vehicle/Linkage/SpLA_S2LAR/sm_car_data_Linkage_SpLA_S2LAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Linkage\SpLA_S2LAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC53119-8B9F-40B1-A63F-A1A98436963C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1F2055-D94C-407A-B32E-5AAAF762B826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" tabRatio="828" xr2:uid="{7F59BFDE-2DD5-4720-8334-1691F44FC63C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="828" xr2:uid="{7F59BFDE-2DD5-4720-8334-1691F44FC63C}"/>
   </bookViews>
   <sheets>
     <sheet name="S2LAR_Sedan_HambaLG_f" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -670,7 +675,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -679,7 +684,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669C2219-96DC-48BB-9264-11E708105B32}">
   <sheetPr>
-    <tabColor theme="7" tint="0.39997558519241921"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:N33"/>
   <sheetViews>
@@ -688,21 +693,21 @@
       <selection activeCell="J19" sqref="J19"/>
       <selection pane="topRight" activeCell="J19" sqref="J19"/>
       <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -722,7 +727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -736,7 +741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -753,7 +758,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -770,7 +775,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -803,7 +808,7 @@
         <v>0.2452914285714286</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -834,7 +839,7 @@
         <v>0.18855571428571433</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -850,7 +855,7 @@
         <v>2.9028299999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -883,7 +888,7 @@
         <v>0.19097000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -914,7 +919,7 @@
         <v>0.18855571428571433</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>12</v>
@@ -933,7 +938,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -966,7 +971,7 @@
         <v>0.51255285714285714</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>18</v>
@@ -997,7 +1002,7 @@
         <v>0.53609214285714291</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>13</v>
@@ -1028,7 +1033,7 @@
         <v>0.54321428571428576</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
@@ -1046,7 +1051,7 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -1079,7 +1084,7 @@
         <v>0.42648357142857141</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>21</v>
@@ -1110,7 +1115,7 @@
         <v>0.36214285714285716</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>12</v>
@@ -1128,7 +1133,7 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>22</v>
@@ -1146,7 +1151,7 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>24</v>
@@ -1161,7 +1166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>25</v>
@@ -1181,7 +1186,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>27</v>
@@ -1201,7 +1206,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>29</v>
@@ -1219,7 +1224,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
@@ -1231,19 +1236,19 @@
         <v>12</v>
       </c>
       <c r="F23" s="21">
-        <v>0.24779999999999999</v>
+        <v>0.15379999999999999</v>
       </c>
       <c r="G23" s="21">
-        <v>0.52560000000000007</v>
+        <v>0.65</v>
       </c>
       <c r="H23" s="21">
-        <v>0.37421428571428578</v>
+        <v>0.24</v>
       </c>
       <c r="J23" s="24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>13</v>
@@ -1256,16 +1261,16 @@
         <v>0.15379999999999999</v>
       </c>
       <c r="G24" s="21">
-        <v>0.86560000000000004</v>
+        <v>0.91</v>
       </c>
       <c r="H24" s="21">
-        <v>0.37421428571428578</v>
+        <v>0.23</v>
       </c>
       <c r="L24" s="25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
         <v>12</v>
@@ -1283,7 +1288,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
@@ -1298,11 +1303,11 @@
       <c r="F26" s="23">
         <v>-2.6557142857142869E-3</v>
       </c>
-      <c r="G26" s="23">
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="H26" s="23">
-        <v>0.72138857142857149</v>
+      <c r="G26" s="21">
+        <v>0.62</v>
+      </c>
+      <c r="H26" s="21">
+        <v>0.65</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>33</v>
@@ -1313,14 +1318,14 @@
       </c>
       <c r="M26" s="27">
         <f>G26</f>
-        <v>0.44059999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="N26" s="27">
         <f t="shared" ref="N26:N27" si="4">H26</f>
-        <v>0.72138857142857149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="14" t="s">
         <v>34</v>
@@ -1333,11 +1338,11 @@
       <c r="F27" s="23">
         <v>5.5166428571428582E-2</v>
       </c>
-      <c r="G27" s="23">
-        <v>0.7700999999999999</v>
-      </c>
-      <c r="H27" s="23">
-        <v>0.10791857142857141</v>
+      <c r="G27" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="H27" s="21">
+        <v>0.19</v>
       </c>
       <c r="L27" s="27">
         <f>-F27</f>
@@ -1345,14 +1350,14 @@
       </c>
       <c r="M27" s="27">
         <f t="shared" ref="M27" si="5">G27</f>
-        <v>0.7700999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="N27" s="27">
         <f t="shared" si="4"/>
-        <v>0.10791857142857141</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>35</v>
@@ -1367,7 +1372,7 @@
         <v>3.6529410000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>36</v>
@@ -1382,7 +1387,7 @@
         <v>4.3157700000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>37</v>
       </c>
@@ -1403,7 +1408,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="15" t="s">
         <v>40</v>
@@ -1419,7 +1424,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
@@ -1435,7 +1440,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
     </row>
   </sheetData>
@@ -1456,7 +1461,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4E0219-8966-4B91-AC80-0C0C71221064}">
   <sheetPr>
-    <tabColor theme="7" tint="0.39997558519241921"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:K33"/>
   <sheetViews>
@@ -1465,21 +1470,21 @@
       <selection activeCell="J19" sqref="J19"/>
       <selection pane="topRight" activeCell="J19" sqref="J19"/>
       <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
-      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomRight" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1499,7 +1504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1513,7 +1518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1527,7 +1532,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1541,7 +1546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1564,7 +1569,7 @@
       <c r="J5" s="19"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -1586,7 +1591,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -1604,7 +1609,7 @@
       <c r="J7" s="19"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -1627,7 +1632,7 @@
       <c r="J8" s="19"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -1649,7 +1654,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>12</v>
@@ -1667,7 +1672,7 @@
       <c r="J10" s="19"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1690,7 +1695,7 @@
       <c r="J11" s="19"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>18</v>
@@ -1711,7 +1716,7 @@
       <c r="J12" s="19"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>13</v>
@@ -1732,7 +1737,7 @@
       <c r="J13" s="19"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
@@ -1749,7 +1754,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -1772,7 +1777,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>21</v>
@@ -1793,7 +1798,7 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>12</v>
@@ -1810,7 +1815,7 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>22</v>
@@ -1827,7 +1832,7 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>24</v>
@@ -1842,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>25</v>
@@ -1862,7 +1867,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>27</v>
@@ -1882,7 +1887,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>29</v>
@@ -1900,7 +1905,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
@@ -1912,19 +1917,19 @@
         <v>12</v>
       </c>
       <c r="F23" s="21">
-        <v>0.24779999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="G23" s="21">
-        <v>0.52560000000000007</v>
+        <v>0.65</v>
       </c>
       <c r="H23" s="21">
-        <v>0.37421428571428578</v>
+        <v>0.24</v>
       </c>
       <c r="J23" s="24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>13</v>
@@ -1934,16 +1939,16 @@
         <v>12</v>
       </c>
       <c r="F24" s="21">
-        <v>0.15379999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="G24" s="21">
-        <v>0.86560000000000004</v>
+        <v>0.91</v>
       </c>
       <c r="H24" s="21">
-        <v>0.37421428571428578</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
         <v>12</v>
@@ -1958,7 +1963,7 @@
         <v>5.2778799999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
@@ -1971,19 +1976,19 @@
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="23">
-        <v>2.6557142857142899E-3</v>
-      </c>
-      <c r="G26" s="23">
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="H26" s="23">
-        <v>0.72138857142857149</v>
+        <v>2.6557142857142869E-3</v>
+      </c>
+      <c r="G26" s="21">
+        <v>0.62</v>
+      </c>
+      <c r="H26" s="21">
+        <v>0.65</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="20" t="s">
         <v>34</v>
@@ -1994,16 +1999,16 @@
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="23">
-        <v>-5.5166428571428602E-2</v>
-      </c>
-      <c r="G27" s="23">
-        <v>0.7700999999999999</v>
-      </c>
-      <c r="H27" s="23">
-        <v>0.10791857142857141</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-5.5166428571428582E-2</v>
+      </c>
+      <c r="G27" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="H27" s="21">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>35</v>
@@ -2018,7 +2023,7 @@
         <v>3.6529410000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>36</v>
@@ -2033,7 +2038,7 @@
         <v>4.3157700000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>37</v>
       </c>
@@ -2054,7 +2059,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="15" t="s">
         <v>40</v>
@@ -2070,7 +2075,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
@@ -2086,7 +2091,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
     </row>
   </sheetData>

--- a/Libraries/Vehicle/Linkage/SpLA_S2LAR/sm_car_data_Linkage_SpLA_S2LAR.xlsx
+++ b/Libraries/Vehicle/Linkage/SpLA_S2LAR/sm_car_data_Linkage_SpLA_S2LAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Linkage\SpLA_S2LAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Linkage\SpLA_S2LAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1F2055-D94C-407A-B32E-5AAAF762B826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF23671-F6F4-49D9-8309-043617FFF5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="828" xr2:uid="{7F59BFDE-2DD5-4720-8334-1691F44FC63C}"/>
+    <workbookView xWindow="13350" yWindow="2145" windowWidth="13515" windowHeight="12765" tabRatio="828" activeTab="1" xr2:uid="{7F59BFDE-2DD5-4720-8334-1691F44FC63C}"/>
   </bookViews>
   <sheets>
     <sheet name="S2LAR_Sedan_HambaLG_f" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="52">
   <si>
     <t>Units</t>
   </si>
@@ -184,6 +184,15 @@
   </si>
   <si>
     <t>Useful for rear axle</t>
+  </si>
+  <si>
+    <t>LowerArmF to Subframe</t>
+  </si>
+  <si>
+    <t>Rigid_UJ</t>
+  </si>
+  <si>
+    <t>LowerArmR to Subframe</t>
   </si>
 </sst>
 </file>
@@ -275,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -288,9 +297,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -301,26 +309,18 @@
     <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -330,14 +330,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -387,9 +380,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -427,7 +420,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -533,7 +526,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -675,7 +668,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -686,19 +679,19 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J19" sqref="J19"/>
       <selection pane="topRight" activeCell="J19" sqref="J19"/>
       <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
-      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
+      <selection pane="bottomRight" activeCell="A33" sqref="A33:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
@@ -733,11 +726,9 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -747,31 +738,29 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="20" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="20" t="s">
         <v>47</v>
       </c>
     </row>
@@ -786,24 +775,24 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="6">
         <v>0.29913000000000006</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="6">
         <v>0.44059999999999999</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="6">
         <v>0.19097000000000003</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="21">
         <f>-F8</f>
         <v>0.18372714285714289</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="21">
         <f>G8</f>
         <v>0.44059999999999999</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="21">
         <f>H8</f>
         <v>0.2452914285714286</v>
       </c>
@@ -817,24 +806,24 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="6">
         <v>0.89710000000000001</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="6">
         <v>0.18855571428571433</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="21">
         <f>-F9</f>
         <v>-0.03</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="21">
         <f>G9</f>
         <v>0.89710000000000001</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="21">
         <f>H9</f>
         <v>0.18855571428571433</v>
       </c>
@@ -848,9 +837,9 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21">
+      <c r="F7" s="12"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6">
         <f>5.80566/2</f>
         <v>2.9028299999999998</v>
       </c>
@@ -866,24 +855,24 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="6">
         <v>-0.18372714285714289</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="6">
         <v>0.44059999999999999</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="6">
         <v>0.2452914285714286</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="21">
         <f>-F5</f>
         <v>-0.29913000000000006</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="21">
         <f>G5</f>
         <v>0.44059999999999999</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="21">
         <f t="shared" ref="N8:N9" si="0">H5</f>
         <v>0.19097000000000003</v>
       </c>
@@ -897,24 +886,24 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="6">
         <v>0.03</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="6">
         <v>0.89710000000000001</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="6">
         <v>0.18855571428571433</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L9" s="21">
         <f>-F6</f>
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="M9" s="26">
+      <c r="M9" s="21">
         <f t="shared" ref="M9" si="1">G6</f>
         <v>0.89710000000000001</v>
       </c>
-      <c r="N9" s="26">
+      <c r="N9" s="21">
         <f t="shared" si="0"/>
         <v>0.18855571428571433</v>
       </c>
@@ -928,15 +917,13 @@
       <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21">
+      <c r="F10" s="12"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
         <f>5.80566/2</f>
         <v>2.9028299999999998</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="7"/>
+      <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -949,24 +936,24 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="6">
         <v>0.16634428571428575</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="6">
         <v>0.63060000000000005</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="6">
         <v>0.53609214285714291</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="21">
         <f>-F12</f>
         <v>0.18372714285714289</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="21">
         <f>G12</f>
         <v>0.63060000000000005</v>
       </c>
-      <c r="N11" s="26">
+      <c r="N11" s="21">
         <f>H12</f>
         <v>0.51255285714285714</v>
       </c>
@@ -980,24 +967,24 @@
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="6">
         <v>-0.18372714285714289</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="6">
         <v>0.63060000000000005</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="6">
         <v>0.51255285714285714</v>
       </c>
-      <c r="L12" s="26">
+      <c r="L12" s="21">
         <f>-F11</f>
         <v>-0.16634428571428575</v>
       </c>
-      <c r="M12" s="26">
+      <c r="M12" s="21">
         <f>G11</f>
         <v>0.63060000000000005</v>
       </c>
-      <c r="N12" s="26">
+      <c r="N12" s="21">
         <f>H11</f>
         <v>0.53609214285714291</v>
       </c>
@@ -1011,24 +998,24 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="6">
         <v>-4.8285714285714293E-2</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="6">
         <v>0.89280000000000004</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="6">
         <v>0.54321428571428576</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="21">
         <f>-F13</f>
         <v>4.8285714285714293E-2</v>
       </c>
-      <c r="M13" s="26">
+      <c r="M13" s="21">
         <f t="shared" ref="M13:N13" si="2">G13</f>
         <v>0.89280000000000004</v>
       </c>
-      <c r="N13" s="26">
+      <c r="N13" s="21">
         <f t="shared" si="2"/>
         <v>0.54321428571428576</v>
       </c>
@@ -1042,14 +1029,13 @@
       <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6">
         <v>5.2778799999999997</v>
       </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -1062,24 +1048,24 @@
       <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="6">
         <v>9.4157142857142894E-3</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="6">
         <v>0.89449999999999996</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="6">
         <v>0.42648357142857141</v>
       </c>
-      <c r="L15" s="26">
+      <c r="L15" s="21">
         <f>-F15</f>
         <v>-9.4157142857142894E-3</v>
       </c>
-      <c r="M15" s="26">
+      <c r="M15" s="21">
         <f t="shared" ref="M15:N16" si="3">G15</f>
         <v>0.89449999999999996</v>
       </c>
-      <c r="N15" s="26">
+      <c r="N15" s="21">
         <f t="shared" si="3"/>
         <v>0.42648357142857141</v>
       </c>
@@ -1093,24 +1079,24 @@
       <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="6">
         <v>0</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="6">
         <v>0.99209999999999998</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="6">
         <v>0.36214285714285716</v>
       </c>
-      <c r="L16" s="26">
+      <c r="L16" s="21">
         <f>-F16</f>
         <v>0</v>
       </c>
-      <c r="M16" s="26">
+      <c r="M16" s="21">
         <f t="shared" si="3"/>
         <v>0.99209999999999998</v>
       </c>
-      <c r="N16" s="26">
+      <c r="N16" s="21">
         <f t="shared" si="3"/>
         <v>0.36214285714285716</v>
       </c>
@@ -1124,14 +1110,13 @@
       <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6">
         <v>5.2778799999999997</v>
       </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
@@ -1142,14 +1127,13 @@
       <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6">
         <v>0</v>
       </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -1160,9 +1144,9 @@
       <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1172,19 +1156,17 @@
         <v>25</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6">
         <v>0.15</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
@@ -1192,19 +1174,17 @@
         <v>27</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6">
         <v>0.05</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
@@ -1212,39 +1192,36 @@
         <v>29</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="6" t="s">
+      <c r="D22" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6">
         <v>1.76</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="6">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="6">
         <v>0.65</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="6">
         <v>0.24</v>
       </c>
-      <c r="J23" s="24" t="s">
+      <c r="J23" s="19" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1257,16 +1234,16 @@
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="6">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="6">
         <v>0.91</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="6">
         <v>0.23</v>
       </c>
-      <c r="L24" s="25" t="s">
+      <c r="L24" s="20" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1279,12 +1256,12 @@
       <c r="D25" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21">
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6">
         <v>5.2778799999999997</v>
       </c>
-      <c r="L25" s="25" t="s">
+      <c r="L25" s="20" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1292,67 +1269,65 @@
       <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="23">
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="18">
         <v>-2.6557142857142869E-3</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="6">
         <v>0.62</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="6">
         <v>0.65</v>
       </c>
-      <c r="J26" s="14" t="s">
+      <c r="J26" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L26" s="27">
+      <c r="L26" s="22">
         <f>-F26</f>
         <v>2.6557142857142869E-3</v>
       </c>
-      <c r="M26" s="27">
+      <c r="M26" s="22">
         <f>G26</f>
         <v>0.62</v>
       </c>
-      <c r="N26" s="27">
+      <c r="N26" s="22">
         <f t="shared" ref="N26:N27" si="4">H26</f>
         <v>0.65</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="23">
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="18">
         <v>5.5166428571428582E-2</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="6">
         <v>0.85</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="6">
         <v>0.19</v>
       </c>
-      <c r="L27" s="27">
+      <c r="L27" s="22">
         <f>-F27</f>
         <v>-5.5166428571428582E-2</v>
       </c>
-      <c r="M27" s="27">
+      <c r="M27" s="22">
         <f t="shared" ref="M27" si="5">G27</f>
         <v>0.85</v>
       </c>
-      <c r="N27" s="27">
+      <c r="N27" s="22">
         <f t="shared" si="4"/>
         <v>0.19</v>
       </c>
@@ -1366,9 +1341,9 @@
       <c r="D28" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21">
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6">
         <v>3.6529410000000002</v>
       </c>
     </row>
@@ -1381,9 +1356,9 @@
       <c r="D29" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21">
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6">
         <v>4.3157700000000006</v>
       </c>
     </row>
@@ -1391,36 +1366,34 @@
       <c r="A30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="21">
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="6">
         <v>0.1</v>
       </c>
-      <c r="J30" s="15" t="s">
+      <c r="J30" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="21">
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="6">
         <v>-0.15</v>
       </c>
     </row>
@@ -1428,29 +1401,58 @@
       <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="16" t="s">
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="15" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A26:B31">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+  <conditionalFormatting sqref="A32:A34">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+  <conditionalFormatting sqref="A26:B31">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1463,19 +1465,19 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J19" sqref="J19"/>
       <selection pane="topRight" activeCell="J19" sqref="J19"/>
       <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
-      <selection pane="bottomRight" activeCell="H39" sqref="H39"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
@@ -1484,7 +1486,7 @@
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1504,49 +1506,46 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1557,19 +1556,18 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="6">
         <v>0.18372714285714289</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="6">
         <v>0.44059999999999999</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="6">
         <v>0.2452914285714286</v>
       </c>
-      <c r="J5" s="19"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -1578,20 +1576,19 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="6">
         <f>-0.03</f>
         <v>-0.03</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="6">
         <v>0.89710000000000001</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="6">
         <v>0.18855571428571433</v>
       </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -1600,16 +1597,15 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6">
         <f>5.80566/2</f>
         <v>2.9028299999999998</v>
       </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -1620,19 +1616,18 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="6">
         <v>-0.29913000000000006</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="6">
         <v>0.44059999999999999</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="6">
         <v>0.19097000000000003</v>
       </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -1641,20 +1636,18 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="6">
         <f>-0.07</f>
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="6">
         <v>0.89710000000000001</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="6">
         <v>0.18855571428571433</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>12</v>
@@ -1663,16 +1656,15 @@
       <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21">
+      <c r="F10" s="12"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
         <f>5.80566/2</f>
         <v>2.9028299999999998</v>
       </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1683,19 +1675,18 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="6">
         <v>0.18372714285714289</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="6">
         <v>0.63060000000000005</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="6">
         <v>0.51255285714285714</v>
       </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>18</v>
@@ -1704,19 +1695,18 @@
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="6">
         <v>-0.16634428571428575</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="6">
         <v>0.63060000000000005</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="6">
         <v>0.53609214285714291</v>
       </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>13</v>
@@ -1725,19 +1715,18 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="6">
         <v>4.8285714285714293E-2</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="6">
         <v>0.89280000000000004</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="6">
         <v>0.54321428571428576</v>
       </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
@@ -1746,15 +1735,13 @@
       <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6">
         <v>5.4538000000000002</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -1765,19 +1752,17 @@
       <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="6">
         <v>-9.4157142857142894E-3</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="6">
         <v>0.89449999999999996</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="6">
         <v>0.42648357142857141</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>21</v>
@@ -1786,19 +1771,17 @@
       <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="6">
         <v>0</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="6">
         <v>0.99209999999999998</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="6">
         <v>0.36214285714285716</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>12</v>
@@ -1807,15 +1790,13 @@
       <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6">
         <v>7.0371699999999997</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>22</v>
@@ -1824,15 +1805,13 @@
       <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6">
         <v>0</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>24</v>
@@ -1841,95 +1820,88 @@
       <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6">
         <v>0.15</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6">
         <v>0.05</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="6" t="s">
+      <c r="D22" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6">
         <v>1.76</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="6">
         <v>0.13</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="6">
         <v>0.65</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="6">
         <v>0.24</v>
       </c>
-      <c r="J23" s="24" t="s">
+      <c r="J23" s="19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>13</v>
@@ -1938,17 +1910,17 @@
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="6">
         <v>0.13</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="6">
         <v>0.91</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="6">
         <v>0.23</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
         <v>12</v>
@@ -1957,58 +1929,56 @@
       <c r="D25" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21">
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6">
         <v>5.2778799999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="23">
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="18">
         <v>2.6557142857142869E-3</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="6">
         <v>0.62</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="6">
         <v>0.65</v>
       </c>
-      <c r="J26" s="14" t="s">
+      <c r="J26" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="23">
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="18">
         <v>-5.5166428571428582E-2</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="6">
         <v>0.85</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="6">
         <v>0.19</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>35</v>
@@ -2017,13 +1987,13 @@
       <c r="D28" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7">
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6">
         <v>3.6529410000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>36</v>
@@ -2032,86 +2002,108 @@
       <c r="D29" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7">
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6">
         <v>4.3157700000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="7">
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="6">
         <v>0.1</v>
       </c>
-      <c r="J30" s="15" t="s">
+      <c r="J30" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="7">
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="6">
         <v>-0.15</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="16" t="s">
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="15" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A26:B29">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="A26">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30:B31">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="A32:A34">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="A26:B31">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Libraries/Vehicle/Linkage/SpLA_S2LAR/sm_car_data_Linkage_SpLA_S2LAR.xlsx
+++ b/Libraries/Vehicle/Linkage/SpLA_S2LAR/sm_car_data_Linkage_SpLA_S2LAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Linkage\SpLA_S2LAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF23671-F6F4-49D9-8309-043617FFF5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0EA5F0-2375-4A77-B009-D5D1614ACCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13350" yWindow="2145" windowWidth="13515" windowHeight="12765" tabRatio="828" activeTab="1" xr2:uid="{7F59BFDE-2DD5-4720-8334-1691F44FC63C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="828" xr2:uid="{7F59BFDE-2DD5-4720-8334-1691F44FC63C}"/>
   </bookViews>
   <sheets>
     <sheet name="S2LAR_Sedan_HambaLG_f" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="49">
   <si>
     <t>Units</t>
   </si>
@@ -138,9 +138,6 @@
     <t>sTop</t>
   </si>
   <si>
-    <t>Also appears in Springs</t>
-  </si>
-  <si>
     <t>sBottom</t>
   </si>
   <si>
@@ -156,9 +153,6 @@
     <t>xMax</t>
   </si>
   <si>
-    <t>Also appears in Dampers</t>
-  </si>
-  <si>
     <t>xMin</t>
   </si>
   <si>
@@ -174,18 +168,6 @@
     <t>SplitLowerArmShockRear_Sedan_HambaLG_f</t>
   </si>
   <si>
-    <t>Also in steering</t>
-  </si>
-  <si>
-    <t>Hardpoints mirrored front/rear about reference</t>
-  </si>
-  <si>
-    <t>Used for rear axle</t>
-  </si>
-  <si>
-    <t>Useful for rear axle</t>
-  </si>
-  <si>
     <t>LowerArmF to Subframe</t>
   </si>
   <si>
@@ -193,6 +175,15 @@
   </si>
   <si>
     <t>LowerArmR to Subframe</t>
+  </si>
+  <si>
+    <t>Must  be consistent with steering rack outboard point</t>
+  </si>
+  <si>
+    <t>Must be consistent with values in Spring, Damper</t>
+  </si>
+  <si>
+    <t>Must be consistent with value in Dampers</t>
   </si>
 </sst>
 </file>
@@ -202,7 +193,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,12 +209,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -321,16 +306,44 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -368,6 +381,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -679,14 +697,14 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J19" sqref="J19"/>
       <selection pane="topRight" activeCell="J19" sqref="J19"/>
       <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
-      <selection pane="bottomRight" activeCell="A33" sqref="A33:H34"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,11 +714,11 @@
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -720,7 +738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -732,7 +750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -741,13 +759,10 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -760,11 +775,8 @@
       <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -784,20 +796,8 @@
       <c r="H5" s="6">
         <v>0.19097000000000003</v>
       </c>
-      <c r="L5" s="21">
-        <f>-F8</f>
-        <v>0.18372714285714289</v>
-      </c>
-      <c r="M5" s="21">
-        <f>G8</f>
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="N5" s="21">
-        <f>H8</f>
-        <v>0.2452914285714286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -815,20 +815,8 @@
       <c r="H6" s="6">
         <v>0.18855571428571433</v>
       </c>
-      <c r="L6" s="21">
-        <f>-F9</f>
-        <v>-0.03</v>
-      </c>
-      <c r="M6" s="21">
-        <f>G9</f>
-        <v>0.89710000000000001</v>
-      </c>
-      <c r="N6" s="21">
-        <f>H9</f>
-        <v>0.18855571428571433</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -844,7 +832,7 @@
         <v>2.9028299999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -864,20 +852,8 @@
       <c r="H8" s="6">
         <v>0.2452914285714286</v>
       </c>
-      <c r="L8" s="21">
-        <f>-F5</f>
-        <v>-0.29913000000000006</v>
-      </c>
-      <c r="M8" s="21">
-        <f>G5</f>
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="N8" s="21">
-        <f t="shared" ref="N8:N9" si="0">H5</f>
-        <v>0.19097000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -895,20 +871,8 @@
       <c r="H9" s="6">
         <v>0.18855571428571433</v>
       </c>
-      <c r="L9" s="21">
-        <f>-F6</f>
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="M9" s="21">
-        <f t="shared" ref="M9" si="1">G6</f>
-        <v>0.89710000000000001</v>
-      </c>
-      <c r="N9" s="21">
-        <f t="shared" si="0"/>
-        <v>0.18855571428571433</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>12</v>
@@ -923,9 +887,8 @@
         <f>5.80566/2</f>
         <v>2.9028299999999998</v>
       </c>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -945,20 +908,8 @@
       <c r="H11" s="6">
         <v>0.53609214285714291</v>
       </c>
-      <c r="L11" s="21">
-        <f>-F12</f>
-        <v>0.18372714285714289</v>
-      </c>
-      <c r="M11" s="21">
-        <f>G12</f>
-        <v>0.63060000000000005</v>
-      </c>
-      <c r="N11" s="21">
-        <f>H12</f>
-        <v>0.51255285714285714</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>18</v>
@@ -976,20 +927,8 @@
       <c r="H12" s="6">
         <v>0.51255285714285714</v>
       </c>
-      <c r="L12" s="21">
-        <f>-F11</f>
-        <v>-0.16634428571428575</v>
-      </c>
-      <c r="M12" s="21">
-        <f>G11</f>
-        <v>0.63060000000000005</v>
-      </c>
-      <c r="N12" s="21">
-        <f>H11</f>
-        <v>0.53609214285714291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>13</v>
@@ -1007,20 +946,8 @@
       <c r="H13" s="6">
         <v>0.54321428571428576</v>
       </c>
-      <c r="L13" s="21">
-        <f>-F13</f>
-        <v>4.8285714285714293E-2</v>
-      </c>
-      <c r="M13" s="21">
-        <f t="shared" ref="M13:N13" si="2">G13</f>
-        <v>0.89280000000000004</v>
-      </c>
-      <c r="N13" s="21">
-        <f t="shared" si="2"/>
-        <v>0.54321428571428576</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>12</v>
@@ -1034,10 +961,8 @@
       <c r="H14" s="6">
         <v>5.2778799999999997</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -1057,20 +982,8 @@
       <c r="H15" s="6">
         <v>0.42648357142857141</v>
       </c>
-      <c r="L15" s="21">
-        <f>-F15</f>
-        <v>-9.4157142857142894E-3</v>
-      </c>
-      <c r="M15" s="21">
-        <f t="shared" ref="M15:N16" si="3">G15</f>
-        <v>0.89449999999999996</v>
-      </c>
-      <c r="N15" s="21">
-        <f t="shared" si="3"/>
-        <v>0.42648357142857141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>21</v>
@@ -1088,20 +1001,8 @@
       <c r="H16" s="6">
         <v>0.36214285714285716</v>
       </c>
-      <c r="L16" s="21">
-        <f>-F16</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="21">
-        <f t="shared" si="3"/>
-        <v>0.99209999999999998</v>
-      </c>
-      <c r="N16" s="21">
-        <f t="shared" si="3"/>
-        <v>0.36214285714285716</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>12</v>
@@ -1115,10 +1016,8 @@
       <c r="H17" s="6">
         <v>5.2778799999999997</v>
       </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>22</v>
@@ -1132,10 +1031,8 @@
       <c r="H18" s="6">
         <v>0</v>
       </c>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>24</v>
@@ -1150,7 +1047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>25</v>
@@ -1168,7 +1065,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>27</v>
@@ -1186,7 +1083,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>29</v>
@@ -1201,31 +1098,34 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="6">
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="22">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="22">
         <v>0.65</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="22">
         <v>0.24</v>
       </c>
-      <c r="J23" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J23" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>13</v>
@@ -1243,11 +1143,8 @@
       <c r="H24" s="6">
         <v>0.23</v>
       </c>
-      <c r="L24" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
         <v>12</v>
@@ -1261,11 +1158,8 @@
       <c r="H25" s="6">
         <v>5.2778799999999997</v>
       </c>
-      <c r="L25" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
@@ -1276,66 +1170,51 @@
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="18">
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="20">
         <v>-2.6557142857142869E-3</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="21">
         <v>0.62</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="21">
         <v>0.65</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="L26" s="22">
-        <f>-F26</f>
-        <v>2.6557142857142869E-3</v>
-      </c>
-      <c r="M26" s="22">
-        <f>G26</f>
-        <v>0.62</v>
-      </c>
-      <c r="N26" s="22">
-        <f t="shared" ref="N26:N27" si="4">H26</f>
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="18">
+      <c r="E27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="20">
         <v>5.5166428571428582E-2</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="21">
         <v>0.85</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="21">
         <v>0.19</v>
       </c>
-      <c r="L27" s="22">
-        <f>-F27</f>
-        <v>-5.5166428571428582E-2</v>
-      </c>
-      <c r="M27" s="22">
-        <f t="shared" ref="M27" si="5">G27</f>
-        <v>0.85</v>
-      </c>
-      <c r="N27" s="22">
-        <f t="shared" si="4"/>
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J27" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" t="s">
@@ -1347,10 +1226,10 @@
         <v>3.6529410000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" t="s">
@@ -1362,44 +1241,53 @@
         <v>4.3157700000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" t="s">
         <v>12</v>
       </c>
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="6">
+      <c r="H30" s="19">
         <v>0.1</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" t="s">
         <v>12</v>
       </c>
+      <c r="E31" t="s">
+        <v>48</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="6">
+      <c r="H31" s="19">
         <v>-0.15</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J31" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>8</v>
@@ -1410,12 +1298,12 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>8</v>
@@ -1426,12 +1314,12 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>8</v>
@@ -1442,17 +1330,27 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A32:A34">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B31">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:E31">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J31">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1469,10 +1367,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="J19" sqref="J19"/>
-      <selection pane="topRight" activeCell="J19" sqref="J19"/>
-      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,7 +1380,7 @@
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1528,7 +1426,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1881,24 +1779,27 @@
       <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="6">
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="22">
         <v>0.13</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="22">
         <v>0.65</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="22">
         <v>0.24</v>
       </c>
-      <c r="J23" s="19" t="s">
-        <v>45</v>
+      <c r="J23" s="18" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1946,42 +1847,51 @@
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="18">
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="20">
         <v>2.6557142857142869E-3</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="21">
         <v>0.62</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="21">
         <v>0.65</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="18">
+      <c r="E27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="20">
         <v>-5.5166428571428582E-2</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="21">
         <v>0.85</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="21">
         <v>0.19</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" t="s">
@@ -1996,7 +1906,7 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" t="s">
@@ -2010,42 +1920,51 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" t="s">
         <v>12</v>
       </c>
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="6">
+      <c r="H30" s="19">
         <v>0.1</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" t="s">
         <v>12</v>
       </c>
+      <c r="E31" t="s">
+        <v>48</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="6">
+      <c r="H31" s="19">
         <v>-0.15</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>8</v>
@@ -2056,12 +1975,12 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>8</v>
@@ -2072,12 +1991,12 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>8</v>
@@ -2088,22 +2007,32 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:A34">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B31">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J31">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:E31">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Libraries/Vehicle/Linkage/SpLA_S2LAR/sm_car_data_Linkage_SpLA_S2LAR.xlsx
+++ b/Libraries/Vehicle/Linkage/SpLA_S2LAR/sm_car_data_Linkage_SpLA_S2LAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Linkage\SpLA_S2LAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0EA5F0-2375-4A77-B009-D5D1614ACCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EE708A-ECC3-4AD1-81BF-982E8E5189B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="828" xr2:uid="{7F59BFDE-2DD5-4720-8334-1691F44FC63C}"/>
+    <workbookView xWindow="30390" yWindow="0" windowWidth="21600" windowHeight="15585" tabRatio="828" xr2:uid="{7F59BFDE-2DD5-4720-8334-1691F44FC63C}"/>
   </bookViews>
   <sheets>
     <sheet name="S2LAR_Sedan_HambaLG_f" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="51">
   <si>
     <t>Units</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>Must be consistent with value in Dampers</t>
+  </si>
+  <si>
+    <t>sARB</t>
+  </si>
+  <si>
+    <t>Must be same as AntiRollBar.sSuspension for attachment to LowerArm</t>
   </si>
 </sst>
 </file>
@@ -213,7 +219,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +262,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -269,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -311,6 +323,8 @@
     <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -697,14 +711,14 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J19" sqref="J19"/>
       <selection pane="topRight" activeCell="J19" sqref="J19"/>
       <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,7 +732,7 @@
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -738,7 +752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -750,7 +764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -762,7 +776,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -776,7 +790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -797,7 +811,7 @@
         <v>0.19097000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -816,7 +830,7 @@
         <v>0.18855571428571433</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -832,7 +846,7 @@
         <v>2.9028299999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -853,7 +867,7 @@
         <v>0.2452914285714286</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -872,170 +886,183 @@
         <v>0.18855571428571433</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="23">
+        <v>-0.05</v>
+      </c>
+      <c r="G10" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="H10" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6">
+      <c r="F11" s="12"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
         <f>5.80566/2</f>
         <v>2.9028299999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0.16634428571428575</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0.63060000000000005</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0.53609214285714291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="6">
-        <v>-0.18372714285714289</v>
+        <v>0.16634428571428575</v>
       </c>
       <c r="G12" s="6">
         <v>0.63060000000000005</v>
       </c>
       <c r="H12" s="6">
-        <v>0.51255285714285714</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.53609214285714291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="6">
-        <v>-4.8285714285714293E-2</v>
+        <v>-0.18372714285714289</v>
       </c>
       <c r="G13" s="6">
-        <v>0.89280000000000004</v>
+        <v>0.63060000000000005</v>
       </c>
       <c r="H13" s="6">
-        <v>0.54321428571428576</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.51255285714285714</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F14" s="6">
+        <v>-4.8285714285714293E-2</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.89280000000000004</v>
+      </c>
       <c r="H14" s="6">
-        <v>5.2778799999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>0.54321428571428576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="6">
-        <v>9.4157142857142894E-3</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0.89449999999999996</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="6">
-        <v>0.42648357142857141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+        <v>5.2778799999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="6">
-        <v>0</v>
+        <v>9.4157142857142894E-3</v>
       </c>
       <c r="G16" s="6">
-        <v>0.99209999999999998</v>
+        <v>0.89449999999999996</v>
       </c>
       <c r="H16" s="6">
-        <v>0.36214285714285716</v>
+        <v>0.42648357142857141</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.99209999999999998</v>
+      </c>
       <c r="H17" s="6">
-        <v>5.2778799999999997</v>
+        <v>0.36214285714285716</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6">
-        <v>0</v>
+        <v>5.2778799999999997</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" t="s">
@@ -1050,146 +1077,136 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" t="s">
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6">
-        <v>1.76</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>11</v>
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="22">
-        <v>0.15379999999999999</v>
-      </c>
-      <c r="G23" s="22">
-        <v>0.65</v>
-      </c>
-      <c r="H23" s="22">
-        <v>0.24</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>46</v>
+        <v>14</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6">
+        <v>1.76</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5" t="s">
-        <v>13</v>
+      <c r="A24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="6">
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="22">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G24" s="6">
-        <v>0.91</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0.23</v>
+      <c r="G24" s="22">
+        <v>0.65</v>
+      </c>
+      <c r="H24" s="22">
+        <v>0.24</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.91</v>
+      </c>
       <c r="H25" s="6">
-        <v>5.2778799999999997</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>32</v>
+      <c r="A26" s="4"/>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="20">
-        <v>-2.6557142857142869E-3</v>
-      </c>
-      <c r="G26" s="21">
-        <v>0.62</v>
-      </c>
-      <c r="H26" s="21">
-        <v>0.65</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>47</v>
+        <v>14</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6">
+        <v>5.2778799999999997</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="B27" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" t="s">
@@ -1199,13 +1216,13 @@
         <v>47</v>
       </c>
       <c r="F27" s="20">
-        <v>5.5166428571428582E-2</v>
+        <v>-2.6557142857142869E-3</v>
       </c>
       <c r="G27" s="21">
-        <v>0.85</v>
+        <v>0.62</v>
       </c>
       <c r="H27" s="21">
-        <v>0.19</v>
+        <v>0.65</v>
       </c>
       <c r="J27" s="13" t="s">
         <v>47</v>
@@ -1213,23 +1230,33 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="5" t="s">
-        <v>34</v>
+      <c r="B28" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6">
-        <v>3.6529410000000002</v>
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="20">
+        <v>5.5166428571428582E-2</v>
+      </c>
+      <c r="G28" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="H28" s="21">
+        <v>0.19</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" t="s">
@@ -1238,36 +1265,30 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6">
-        <v>4.3157700000000006</v>
+        <v>3.6529410000000002</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>37</v>
+      <c r="A30" s="4"/>
+      <c r="B30" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>48</v>
+        <v>14</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6">
+        <v>4.3157700000000006</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
+      <c r="A31" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="B31" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" t="s">
@@ -1279,47 +1300,52 @@
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="19">
-        <v>-0.15</v>
+        <v>0.1</v>
       </c>
       <c r="J31" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="15" t="s">
-        <v>40</v>
+      <c r="A32" s="4"/>
+      <c r="B32" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="19">
+        <v>-0.15</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>8</v>
@@ -1333,24 +1359,40 @@
         <v>44</v>
       </c>
     </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A32:A34">
+  <conditionalFormatting sqref="A33:A35">
     <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:B31">
+  <conditionalFormatting sqref="A27:B32">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E31">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="E27:E32">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J31">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="J31:J32">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1365,7 +1407,7 @@
   </sheetPr>
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
@@ -2012,27 +2054,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:A34">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B31">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:E31">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:J31">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E31">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
